--- a/tests/fmudesign/data/config/design_input_singlereference_and_seed.xlsx
+++ b/tests/fmudesign/data/config/design_input_singlereference_and_seed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Appl\github\semeio\tests\fmudesign\data\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LGAZ/semeio/tests/fmudesign/data/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5817CFAA-82EF-4380-8FB5-0BBCE6EB70F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F2B74E-2E1D-2E4F-80B7-157E4D8C07DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
@@ -51,8 +51,18 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Number of repeated seeds per sensitivity/sensitivity case. 
-This is overrided if number of realisations is specified in the numreal column in designinput.</t>
+          <t xml:space="preserve">Number of repeated seeds per sensitivity/sensitivity case. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>This is overrided if number of realisations is specified in the numreal column in designinput.</t>
         </r>
       </text>
     </comment>
@@ -66,10 +76,40 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Alternatives:
-- default gives seed numbers 1000, 1001, 1002, 1003,---
-- None (seed number is not added as parameter in spreadsheet) 
-- filename for file with list of seeds in ert/input/distributions/If only one seed is given in the external seed file, this is used for all realisations – NOT IMPLEMENTED YET</t>
+          <t xml:space="preserve">Alternatives:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">- default gives seed numbers 1000, 1001, 1002, 1003,---
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">- None (seed number is not added as parameter in spreadsheet) 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- filename for file with list of seeds in ert/input/distributions/If only one seed is given in the external seed file, this is used for all realisations – NOT IMPLEMENTED YET</t>
         </r>
       </text>
     </comment>
@@ -83,11 +123,51 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Alternatives:
-- None
-- name of sheet in this workbook with background parameters
-- Name of external file with background parameters. Must end with .xlsx or .csv and be readable as pandas dataframe with parameter names as column headers.
-Path is relative to where script is run from</t>
+          <t xml:space="preserve">Alternatives:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">- None
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">- name of sheet in this workbook with background parameters
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">- Name of external file with background parameters. Must end with .xlsx or .csv and be readable as pandas dataframe with parameter names as column headers.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Path is relative to where script is run from</t>
         </r>
       </text>
     </comment>
@@ -177,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>designtype</t>
   </si>
@@ -339,6 +419,9 @@
   </si>
   <si>
     <t>rms_seeds</t>
+  </si>
+  <si>
+    <t>distribution_seed</t>
   </si>
 </sst>
 </file>
@@ -2126,21 +2209,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="10"/>
-    <col min="3" max="3" width="77.85546875"/>
-    <col min="4" max="1025" width="8.7109375"/>
+    <col min="3" max="3" width="77.83203125"/>
+    <col min="4" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2156,7 +2239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -2164,12 +2247,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -2188,28 +2279,28 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875"/>
-    <col min="2" max="2" width="8.42578125"/>
-    <col min="3" max="3" width="8.28515625"/>
-    <col min="4" max="4" width="15.140625"/>
+    <col min="1" max="1" width="10.83203125"/>
+    <col min="2" max="2" width="8.5"/>
+    <col min="3" max="3" width="8.33203125"/>
+    <col min="4" max="4" width="15.1640625"/>
     <col min="5" max="5" width="10" style="2"/>
-    <col min="6" max="6" width="11.85546875" style="2"/>
-    <col min="7" max="7" width="9.85546875" style="2"/>
+    <col min="6" max="6" width="11.83203125" style="2"/>
+    <col min="7" max="7" width="9.83203125" style="2"/>
     <col min="8" max="8" width="7" style="2"/>
-    <col min="9" max="9" width="11.85546875"/>
-    <col min="10" max="10" width="11.5703125" style="2"/>
-    <col min="11" max="14" width="11.85546875" style="2"/>
-    <col min="15" max="17" width="11.85546875"/>
-    <col min="18" max="19" width="8.7109375"/>
-    <col min="20" max="20" width="9.85546875"/>
-    <col min="21" max="21" width="8.7109375"/>
-    <col min="22" max="22" width="9.85546875"/>
-    <col min="23" max="1025" width="8.7109375"/>
+    <col min="9" max="9" width="11.83203125"/>
+    <col min="10" max="10" width="11.5" style="2"/>
+    <col min="11" max="14" width="11.83203125" style="2"/>
+    <col min="15" max="17" width="11.83203125"/>
+    <col min="18" max="19" width="8.6640625"/>
+    <col min="20" max="20" width="9.83203125"/>
+    <col min="21" max="21" width="8.6640625"/>
+    <col min="22" max="22" width="9.83203125"/>
+    <col min="23" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2260,7 +2351,7 @@
       </c>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
@@ -2284,7 +2375,7 @@
       <c r="O2" s="28"/>
       <c r="P2" s="29"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2306,7 +2397,7 @@
       <c r="O3" s="28"/>
       <c r="P3" s="29"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>26</v>
       </c>
@@ -2338,7 +2429,7 @@
       <c r="O4" s="41"/>
       <c r="P4" s="42"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>31</v>
       </c>
@@ -2366,7 +2457,7 @@
       <c r="O5" s="54"/>
       <c r="P5" s="55"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
         <v>34</v>
       </c>
@@ -2398,7 +2489,7 @@
       <c r="O6" s="67"/>
       <c r="P6" s="68"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -2422,7 +2513,7 @@
       <c r="O7" s="80"/>
       <c r="P7" s="81"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="82"/>
       <c r="B8" s="83"/>
       <c r="C8" s="84"/>
@@ -2446,7 +2537,7 @@
       <c r="O8" s="93"/>
       <c r="P8" s="94"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="95" t="s">
         <v>40</v>
       </c>
@@ -2496,14 +2587,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625"/>
-    <col min="2" max="2" width="13.42578125" style="2"/>
-    <col min="3" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="15.1640625"/>
+    <col min="2" max="2" width="13.5" style="2"/>
+    <col min="3" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2519,7 +2610,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2527,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2535,7 +2626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2543,7 +2634,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2551,7 +2642,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2559,7 +2650,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2567,7 +2658,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2575,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2583,7 +2674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2591,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
